--- a/Tos.FoodProcs.Web/templates/hendoHyoSimulation_vi.xlsx
+++ b/Tos.FoodProcs.Web/templates/hendoHyoSimulation_vi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DuAn\FP-Lite HAINGOAI - VIET HOA\20250211_NEW\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\1.FP_Lite_Ver_2\trunk\src\01_FPLite\src\C#\Tos.FoodProcs.Web\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FBE3479-61B1-497B-A8B3-10A69AA5CEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="36" windowWidth="15540" windowHeight="12120"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,33 +28,6 @@
     <t>Mô phỏng bảng biến động</t>
   </si>
   <si>
-    <t>Mã sản phẩm    　 　　　：</t>
-  </si>
-  <si>
-    <t>Dự định sản xuất   　　　：</t>
-  </si>
-  <si>
-    <t>Ngày tìm kiếm　    　　　：</t>
-  </si>
-  <si>
-    <t>Tên sản phẩm　　　　　：</t>
-  </si>
-  <si>
-    <t>Sau khi thay đổi　 　　　：</t>
-  </si>
-  <si>
-    <t>Đơn vị sử dụng                ：</t>
-  </si>
-  <si>
-    <t>Tồn kho tối thiểu              ：</t>
-  </si>
-  <si>
-    <t>Ngày giờ xuất  　　　      ：</t>
-  </si>
-  <si>
-    <t>Người xuất    　　            ：</t>
-  </si>
-  <si>
     <t>Ngày</t>
   </si>
   <si>
@@ -70,13 +44,74 @@
   </si>
   <si>
     <t>Lượng tồn sau thay đổi</t>
+  </si>
+  <si>
+    <r>
+      <t>Ngày tìm kiếm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mã sản phẩm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tên sản phẩm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dự định sản xuất</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Sau khi thay đổi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Đơn vị sử dụng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tồn kho tối thiểu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ngày giờ xuất</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Người xuất</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="@* \:"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -107,6 +142,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -122,7 +163,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -256,52 +297,63 @@
       <top style="thin">
         <color theme="0"/>
       </top>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="thick">
         <color theme="0"/>
       </right>
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="medium">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color theme="0"/>
-      </left>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0"/>
-      </top>
-      <bottom style="thick">
+      <bottom style="thin">
         <color theme="0"/>
       </bottom>
       <diagonal/>
@@ -312,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,17 +380,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,8 +402,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -374,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,9 +469,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,7 +506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,7 +541,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -659,7 +714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -667,20 +722,20 @@
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="8" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="23" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" style="13" customWidth="1"/>
-    <col min="5" max="6" width="35" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="7.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="30.75" style="12" customWidth="1"/>
+    <col min="5" max="6" width="35" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,114 +746,140 @@
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="5"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="5"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="5"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="5"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="5"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="5"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="5"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="5"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="5"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="5"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="5"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="5"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="D15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="E15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="F15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" s="12" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
